--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CC6EA-6747-42A2-9F9A-B74BF17B4122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC239EDB-34C2-48A0-9918-358D8418EB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>UI整体流程改进</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用新的STAGE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -564,9 +568,15 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -575,7 +585,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -664,7 +674,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC239EDB-34C2-48A0-9918-358D8418EB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1497EBFD-3242-4631-AD53-A08F320B3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -157,6 +157,39 @@
   </si>
   <si>
     <t>使用新的STAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用AKD，通过485与主机通信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发485通信接口
+控制器使用的是绝对值，下电不丢失，需要软件控制翻转量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开发进展</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2021/11/10：控制器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经到货，待电机到货后可以进行验证</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -214,9 +247,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -671,10 +710,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547ED5E-51B9-4118-873C-52AE99D617D0}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -682,9 +721,10 @@
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="57.125" customWidth="1"/>
+    <col min="5" max="5" width="57.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -694,8 +734,11 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -706,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -717,19 +760,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="2:5" ht="36.75">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1497EBFD-3242-4631-AD53-A08F320B3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239923C-5940-473E-9C90-6047E0952DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>与smif port适配</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>软件技术点</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -92,19 +88,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>robot需要增加新的位置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>技术点</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可装1片</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>robot 使用川崎重工</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -190,6 +174,111 @@
       </rPr>
       <t>已经到货，待电机到货后可以进行验证</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与smif port适配 RV201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月30发货</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月30发货</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已经购买，大约7月到8月到货
+4月30日发货，不带opener，等开发好了，大约9月发货并调试版本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已经购买，大约7月到8月到货
+5月30日发货，不带opener，等开发好了，大约9月发货并调试版本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>无需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买，从厂商借，5 6月份到公司，再联调</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可装6片 WCP200-D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可装1片 RSP200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smif pod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>无需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买，从厂商借，5 6月份到公司，再联调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robot需要增加新的位置
+无RFID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robot需要增加新的位置
+有一个RFID需要读取，ethernet方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与smif port适配 RV203
+RS-232C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发对应接口dll
+RS-232C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robot 使用TAZMO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,40 +625,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="B1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,39 +673,45 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.5">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -621,39 +723,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
-  <dimension ref="B1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,45 +771,51 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.5">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +829,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -726,59 +842,59 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="36.75">
+    <row r="5" spans="2:5" ht="34.5">
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239923C-5940-473E-9C90-6047E0952DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AE6CF-D722-4D03-A9D0-991AA7299F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4月30发货</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5月30发货</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,6 +275,10 @@
   </si>
   <si>
     <t>robot 使用TAZMO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月30发货</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -627,9 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -642,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -654,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -684,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5">
@@ -695,13 +693,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -717,7 +715,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -725,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -740,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -752,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -779,27 +777,27 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -828,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547ED5E-51B9-4118-873C-52AE99D617D0}">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -856,7 +854,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AE6CF-D722-4D03-A9D0-991AA7299F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39BD65-4734-4B40-837E-12E67B09B846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId1"/>
-    <sheet name="AI50-广州新锐" sheetId="5" r:id="rId2"/>
-    <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId3"/>
+    <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
+    <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId2"/>
+    <sheet name="AI50-广州新锐" sheetId="5" r:id="rId3"/>
+    <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +280,32 @@
   </si>
   <si>
     <t>2月30发货</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROBOT由台湾制造
+使用232通信，协议由台湾提供</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 需要完成串口适配模块
+2 与当前的AI系统流程做到隔离与复用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备不在日本，无法联调，必须开发模拟仿真环境</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -624,10 +651,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEEA8E-511C-41DF-A2E9-207E981057E4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34.5">
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -719,7 +800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -822,11 +903,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547ED5E-51B9-4118-873C-52AE99D617D0}">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39BD65-4734-4B40-837E-12E67B09B846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECD254-2F21-4977-B2B9-3009916C5636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -138,10 +138,6 @@
   </si>
   <si>
     <t>UI整体流程改进</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用新的STAGE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -306,6 +302,50 @@
       </rPr>
       <t>设备不在日本，无法联调，必须开发模拟仿真环境</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIO32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>告警灯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クランプ（）CLAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robot的流程修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置
+2 sensor的流程中添加
+3 测试结束，好的片子放A位置， 不好的片子放B位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用新的STAGE+AZD-KX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与BI12先相同，再修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>组成部分
+1 sensor 是否夹到
+2 控制电磁阀
+流程：
+1 robot放完片子后夹住，并判断是否夹紧
+2 robot取片之前先松开，并判断是否松开</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 原点复归方法修改不要报错
+2 要调整只有一毫米余量</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,13 +403,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEEA8E-511C-41DF-A2E9-207E981057E4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -669,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -681,18 +724,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34.5">
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -704,24 +747,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -733,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -760,13 +803,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5">
@@ -774,23 +817,50 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.5">
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="100.5">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="67.5">
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +875,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -819,7 +889,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -831,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -858,27 +928,27 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -908,7 +978,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -930,12 +1000,12 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -964,16 +1034,16 @@
     </row>
     <row r="5" spans="2:5" ht="34.5">
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECD254-2F21-4977-B2B9-3009916C5636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084783E-9C33-484A-877C-F927F9E253D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,8 +344,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1 原点复归方法修改不要报错
-2 要调整只有一毫米余量</t>
+    <t>1 原点复归方法修改不要报错(余量留的太小导致)
+2 要调整只有一毫米余量（需要使用其它的原点复归方法）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -834,32 +834,32 @@
         <v>52</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="8" spans="1:5">
       <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="100.5">
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="100.5">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="67.5">
       <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="67.5">
-      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
     </row>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084783E-9C33-484A-877C-F927F9E253D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97913567-434A-4944-BCAB-6850CA8873E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -305,25 +305,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DIO32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>告警灯</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クランプ（）CLAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>robot的流程修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置
-2 sensor的流程中添加
-3 测试结束，好的片子放A位置， 不好的片子放B位置</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -348,12 +334,101 @@
 2 要调整只有一毫米余量（需要使用其它的原点复归方法）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>framework修改内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>rob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ot驱动模块</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>sensor控制</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夹子sensor控制</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出错信息上报</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一键自动恢复功能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件开发</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件流程修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>两个カセット + 1个SMIF + 1STAGE位置配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置
+2 sensor的流程中添加
+3 测试结束，好的片子放A位置， 不好的片子放B位置
+4 开始之前要确保FOOTONU状态，开始状态检查
+5 提供ROBOT上报机制，分level回调函数参数有级别，上报后的对应处理
+6 robot一键RESET按键
+7 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭）
+8 要增加每次scan结束时的footon操作
+9 增加XY同时回归原点的操作
+10 提供alarm机制，robot alarm, stage alarm, scan alarm
+11 robot report</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +457,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -399,11 +489,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,8 +554,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,123 +915,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="70.5" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="51.75" customWidth="1"/>
+    <col min="1" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="70.5" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="51">
-      <c r="B4" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="51">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" ht="37.5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34.5">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:6" ht="34.5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="100.5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="100.5">
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="67.5">
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="199.5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97913567-434A-4944-BCAB-6850CA8873E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03FFC6-96CF-4401-BCA0-3AE5891B720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -305,28 +305,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>告警灯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クランプ（）CLAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用新的STAGE+AZD-KX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>与BI12先相同，再修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>组成部分
-1 sensor 是否夹到
-2 控制电磁阀
-流程：
-1 robot放完片子后夹住，并判断是否夹紧
-2 robot取片之前先松开，并判断是否松开</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -402,25 +381,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>软件流程修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>两个カセット + 1个SMIF + 1STAGE位置配置</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置
+    <t>软件流程优化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件流程新增模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭是否进入省电模式） --Done
+2 要增加每次scan结束时的footon操作 --Done
+3 增加XY同时回归原点的操作--Done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-doing
 2 sensor的流程中添加
-3 测试结束，好的片子放A位置， 不好的片子放B位置
-4 开始之前要确保FOOTONU状态，开始状态检查
-5 提供ROBOT上报机制，分level回调函数参数有级别，上报后的对应处理
+3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）
+4 提供ROBOT alarm上报机制，分level回调函数参数有级别，上报后的对应处理
+5 提供 Alarm机制，robot stage scan hardware software
 6 robot一键RESET按键
-7 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭）
-8 要增加每次scan结束时的footon操作
-9 增加XY同时回归原点的操作
-10 提供alarm机制，robot alarm, stage alarm, scan alarm
-11 robot report</t>
+71 robot report</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>组成部分
+1 sensor 是否夹到（DIO）
+2 控制电磁阀夹紧与松开（DIO）
+流程：
+1 robot放完片子后夹住，并判断是否夹紧
+2 robot取片之前先松开，并判断是否松开</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>主要是修改配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项，当前IO的分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（告警灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> CLAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クランプ（CLAMP）控制模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>告警灯控制模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在B12基础上修改，根据实际情况修改</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -562,14 +615,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -915,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -935,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -952,10 +1005,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1019,85 +1072,89 @@
     <row r="6" spans="1:6" ht="34.5">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="37.5">
       <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="100.5">
       <c r="A9" s="13"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>48</v>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="199.5">
+    <row r="10" spans="1:6" ht="67.5">
       <c r="A10" s="13"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>63</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="133.5">
       <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>54</v>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
+      <c r="B12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1106,8 +1163,8 @@
       <c r="A13" s="13"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1117,27 +1174,37 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03FFC6-96CF-4401-BCA0-3AE5891B720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84013A51-CAA3-4908-9106-E47DD0A1764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -346,21 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensor控制</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>夹子sensor控制</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,31 +366,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>两个カセット + 1个SMIF + 1STAGE位置配置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>软件流程优化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>软件流程新增模块</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭是否进入省电模式） --Done
-2 要增加每次scan结束时的footon操作 --Done
-3 增加XY同时回归原点的操作--Done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-doing
-2 sensor的流程中添加
-3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）
-4 提供ROBOT alarm上报机制，分level回调函数参数有级别，上报后的对应处理
-5 提供 Alarm机制，robot stage scan hardware software
-6 robot一键RESET按键
-71 robot report</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -476,12 +437,81 @@
     <t>在B12基础上修改，根据实际情况修改</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>两个カセット + 1个SMIF 位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>sensor控制</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>两个カセット + 1个SMIF + 1STAGE位置抓取配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 位置sensor的流程中添加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 提供ROBOT alarm上报机制，分level回调函数参数有级别，上报后的对应处理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 提供 Alarm机制，robot stage scan hardware software</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 robot一键RESET按键</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 robot report</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件流程新增模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭是否进入省电模式） --Done
+2 要增加每次scan结束时的footon操作 --Done
+3 增加XY同时回归原点的操作--Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>4 scan时不做ccd切换</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,13 +555,31 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -598,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,6 +682,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1005,10 +1066,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1092,7 +1153,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1101,10 +1162,10 @@
       <c r="A8" s="13"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1113,99 +1174,160 @@
       <c r="A9" s="13"/>
       <c r="B9" s="10"/>
       <c r="C9" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5">
+    <row r="10" spans="1:6" ht="84">
       <c r="A10" s="13"/>
       <c r="B10" s="10"/>
       <c r="C10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="133.5">
+    <row r="11" spans="1:6" ht="34.5">
       <c r="A11" s="13"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13"/>
-      <c r="B12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>57</v>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
+      <c r="B14" s="10"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="4" t="s">
-        <v>53</v>
+      <c r="B15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="4" t="s">
-        <v>54</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
+  <mergeCells count="6">
+    <mergeCell ref="B7:B17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A2:A22"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C11:C17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84013A51-CAA3-4908-9106-E47DD0A1764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409F0D4-C503-46C7-85A2-9E46CF38CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,18 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-doing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 位置sensor的流程中添加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4 提供ROBOT alarm上报机制，分level回调函数参数有级别，上报后的对应处理</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,6 +492,18 @@
       </rPr>
       <t>4 scan时不做ccd切换</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）--doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 位置sensor的流程中添加--doing</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -646,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -669,6 +669,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,18 +691,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1065,10 +1069,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1081,8 +1085,8 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1099,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="51">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1117,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1135,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.5">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
@@ -1145,11 +1149,11 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="37.5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1159,9 +1163,9 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1171,9 +1175,9 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="100.5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1183,127 +1187,127 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="84">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>72</v>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="34.5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>64</v>
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="8" t="s">
-        <v>65</v>
+      <c r="D12" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="8" t="s">
-        <v>66</v>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="18"/>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="18"/>
       <c r="D15" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="18"/>
       <c r="D16" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="19"/>
       <c r="D17" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="16" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
@@ -1311,9 +1315,9 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>53</v>
       </c>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409F0D4-C503-46C7-85A2-9E46CF38CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24149D-7024-44AB-8371-3DF3305B47B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>需要开发对应接口dll</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>技术点</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,11 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>需要开发对应接口dll
-RS-232C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>robot 使用TAZMO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,6 +495,24 @@
   </si>
   <si>
     <t>2 位置sensor的流程中添加--doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发对应接口dll
+RS-232C
+有两个马达，都是通过232c控制
+一个控制盖子与底盘的lock unlock
+一个控制底盘的下降与上升，下降时opener就打开了
+另外还有4根线连接到DIO上，2个是interlock紧急停止时发出的信息
+2个是检查是否有晶圆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发对应接口dll
+有两个马达，都是通过232c控制
+一个控制盖子与底盘的lock unlock
+一个控制底盘的下降与上升，下降时opener就打开了
+另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -676,6 +685,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,10 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,10 +1007,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1010,18 +1019,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34.5">
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1035,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1050,13 +1059,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1065,15 +1074,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>55</v>
+      <c r="A2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1085,8 +1094,8 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1098,8 +1107,8 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="51">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:6" ht="150">
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1107,17 +1116,17 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1125,201 +1134,201 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.5">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="37.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>47</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="20" t="s">
-        <v>60</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="100.5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21" t="s">
-        <v>59</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="84">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="34.5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>50</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1343,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1358,10 +1367,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1370,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1392,48 +1401,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51">
+    <row r="4" spans="1:5" ht="100.5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1469,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1469,50 +1478,50 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="34.5">
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24149D-7024-44AB-8371-3DF3305B47B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AC8F8-E6A1-4789-9457-CEDBB0BDD2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
-    <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId2"/>
-    <sheet name="AI50-广州新锐" sheetId="5" r:id="rId3"/>
-    <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId4"/>
+    <sheet name="尼康2台BI8" sheetId="8" r:id="rId2"/>
+    <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId3"/>
+    <sheet name="AI50-广州新锐" sheetId="5" r:id="rId4"/>
+    <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -513,6 +514,10 @@
 一个控制盖子与底盘的lock unlock
 一个控制底盘的下降与上升，下降时opener就打开了
 另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件的改进点</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1041,10 +1046,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC852CC-52BF-488A-A76B-5E2BD567E515}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1348,7 +1378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1451,7 +1481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547ED5E-51B9-4118-873C-52AE99D617D0}">
   <dimension ref="B1:E5"/>
   <sheetViews>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AC8F8-E6A1-4789-9457-CEDBB0BDD2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF072AE2-2E60-4F67-8C67-09EC5954A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
@@ -371,8 +371,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>主要是修改配置</t>
+    <t>クランプ（CLAMP）控制模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>告警灯控制模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在B12基础上修改，根据实际情况修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>两个カセット + 1个SMIF 位置</t>
     </r>
     <r>
       <rPr>
@@ -380,9 +392,90 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
-      <t>项，当前IO的分配</t>
+      <t>sensor控制</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>两个カセット + 1个SMIF + 1STAGE位置抓取配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 提供ROBOT alarm上报机制，分level回调函数参数有级别，上报后的对应处理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 提供 Alarm机制，robot stage scan hardware software</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 robot一键RESET按键</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 robot report</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件流程新增模块</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭是否进入省电模式） --Done
+2 要增加每次scan结束时的footon操作 --Done
+3 增加XY同时回归原点的操作--Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>4 scan时不做ccd切换</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）--doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 位置sensor的流程中添加--doing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发对应接口dll
+RS-232C
+有两个马达，都是通过232c控制
+一个控制盖子与底盘的lock unlock
+一个控制底盘的下降与上升，下降时opener就打开了
+另外还有4根线连接到DIO上，2个是interlock紧急停止时发出的信息
+2个是检查是否有晶圆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发对应接口dll
+有两个马达，都是通过232c控制
+一个控制盖子与底盘的lock unlock
+一个控制底盘的下降与上升，下降时opener就打开了
+另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>软件的改进点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>主要是修改配置项，当前IO的分配</t>
     </r>
     <r>
       <rPr>
@@ -415,109 +508,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クランプ（CLAMP）控制模块</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>告警灯控制模块</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在B12基础上修改，根据实际情况修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>两个カセット + 1个SMIF 位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensor控制</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>两个カセット + 1个SMIF + 1STAGE位置抓取配置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4 提供ROBOT alarm上报机制，分level回调函数参数有级别，上报后的对应处理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5 提供 Alarm机制，robot stage scan hardware software</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6 robot一键RESET按键</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7 robot report</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>软件流程新增模块</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 auto robot过程不能有任何需要手动点击的过程，（scan结束要求关闭是否进入省电模式） --Done
-2 要增加每次scan结束时的footon操作 --Done
-3 增加XY同时回归原点的操作--Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>4 scan时不做ccd切换</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 两个カセット + 1个SMIF + 1STAGE，所有的取片位置和放片位置都要灵活可配置-done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3 scan后处理模块（测试结束，好的片子放A位置， 不好的片子放B位置）--doing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 位置sensor的流程中添加--doing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>需要开发对应接口dll
-RS-232C
-有两个马达，都是通过232c控制
-一个控制盖子与底盘的lock unlock
-一个控制底盘的下降与上升，下降时opener就打开了
-另外还有4根线连接到DIO上，2个是interlock紧急停止时发出的信息
-2个是检查是否有晶圆</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>需要开发对应接口dll
-有两个马达，都是通过232c控制
-一个控制盖子与底盘的lock unlock
-一个控制底盘的下降与上升，下降时opener就打开了
-另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>软件的改进点</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1049,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC852CC-52BF-488A-A76B-5E2BD567E515}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1060,7 +1050,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1139,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>27</v>
@@ -1195,8 +1185,8 @@
       <c r="C7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1205,10 +1195,10 @@
       <c r="A8" s="18"/>
       <c r="B8" s="15"/>
       <c r="C8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1217,7 +1207,7 @@
       <c r="A9" s="18"/>
       <c r="B9" s="15"/>
       <c r="C9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>55</v>
@@ -1232,7 +1222,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1241,10 +1231,10 @@
       <c r="A11" s="18"/>
       <c r="B11" s="15"/>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1254,7 +1244,7 @@
       <c r="B12" s="15"/>
       <c r="C12" s="20"/>
       <c r="D12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1264,7 +1254,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1274,7 +1264,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="20"/>
       <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1284,7 +1274,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="20"/>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1294,7 +1284,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1304,7 +1294,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="21"/>
       <c r="D17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1318,7 +1308,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1328,7 +1318,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1439,7 +1429,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1485,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547ED5E-51B9-4118-873C-52AE99D617D0}">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF072AE2-2E60-4F67-8C67-09EC5954A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B42F10-F6C0-4F2D-B2A6-75E1C49048DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
@@ -281,22 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>由于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备不在日本，无法联调，必须开发模拟仿真环境</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用新的STAGE+AZD-KX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,6 +491,43 @@
         <scheme val="minor"/>
       </rPr>
       <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备不在日本，无法联调，必须开发模拟仿真环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+正在沟通是否可以拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械臂的样机到日本</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -987,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEEA8E-511C-41DF-A2E9-207E981057E4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1017,15 +1038,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34.5">
+    <row r="2" spans="1:5" ht="37.5">
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1071,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1082,7 +1103,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1099,10 +1120,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1139,7 +1160,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>27</v>
@@ -1166,13 +1187,13 @@
     <row r="6" spans="1:6" ht="34.5">
       <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1180,13 +1201,13 @@
     <row r="7" spans="1:6" ht="37.5">
       <c r="A7" s="18"/>
       <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1195,10 +1216,10 @@
       <c r="A8" s="18"/>
       <c r="B8" s="15"/>
       <c r="C8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1207,10 +1228,10 @@
       <c r="A9" s="18"/>
       <c r="B9" s="15"/>
       <c r="C9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1219,10 +1240,10 @@
       <c r="A10" s="18"/>
       <c r="B10" s="15"/>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1231,10 +1252,10 @@
       <c r="A11" s="18"/>
       <c r="B11" s="15"/>
       <c r="C11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1244,7 +1265,7 @@
       <c r="B12" s="15"/>
       <c r="C12" s="20"/>
       <c r="D12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1254,7 +1275,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1264,7 +1285,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="20"/>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1274,7 +1295,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="20"/>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1284,7 +1305,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
       <c r="D16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1294,7 +1315,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="21"/>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1302,13 +1323,13 @@
     <row r="18" spans="1:6">
       <c r="A18" s="18"/>
       <c r="B18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1318,7 +1339,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1328,7 +1349,7 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1338,7 +1359,7 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1348,7 +1369,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1429,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B42F10-F6C0-4F2D-B2A6-75E1C49048DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29470428-8B32-4998-BD6B-A038FABA97DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId3"/>
     <sheet name="AI50-广州新锐" sheetId="5" r:id="rId4"/>
     <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId5"/>
+    <sheet name="hoya青岛" sheetId="9" r:id="rId6"/>
+    <sheet name="其它开发" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -152,22 +154,6 @@
   </si>
   <si>
     <t>开发进展</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2021/11/10：控制器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已经到货，待电机到货后可以进行验证</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -391,14 +377,6 @@
   </si>
   <si>
     <t>5 提供 Alarm机制，robot stage scan hardware software</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6 robot一键RESET按键</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7 robot report</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -529,6 +507,195 @@
       </rPr>
       <t>机械臂的样机到日本</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 有问题，clamp会无故变0，断开</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 基本流程优化
+    scan位置要基于interlock进行选择
+2 软件stop时的处理
+3 EMO时的处理
+4 开机时的robot自动连接与origin，再做平台的origin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 robot report</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 robot流程优化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCDAF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>进展</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2022/3/10：整理完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告 ，等待答复</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CBS大于5um检出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2022/3/10：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码完成，等待现场调试</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2022/3/10：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>485通信与基本测试完成，等硬件连接完成进行整体调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2021/11/10：控制器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经到货，待电机到货后可以进行验证</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2022/3/10：正在收集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资料</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>天和地的位置与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BI8不同，需要进行坐标转换</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开发项目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>485代替CPD开发项目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAW开发项目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>划痕检测项目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laserscan与defect scan同时进行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 增加暂停，继续按钮，在检查完毕后加一个提示手动操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>增加stage的扫描，速度的调节</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不做原点复归，直接gotoroboposition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>san外包负责</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>增加一个权限设置，以及密码设置</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,7 +754,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +770,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,9 +876,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -701,9 +883,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,11 +911,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEEA8E-511C-41DF-A2E9-207E981057E4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1023,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1035,18 +1241,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5">
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1277,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1083,16 +1289,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="51.75" customWidth="1"/>
@@ -1100,12 +1306,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1115,17 +1321,17 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
@@ -1135,9 +1341,9 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1149,239 +1355,283 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="150">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36.75">
+      <c r="A6" s="20"/>
+      <c r="B6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="34.5">
+      <c r="A7" s="20"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="37.5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
+    <row r="8" spans="1:6" ht="37.5">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="100.5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>54</v>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="84">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:6" ht="100.5">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="34.5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>66</v>
+      <c r="F10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="84">
+      <c r="A11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11" t="s">
-        <v>68</v>
+    <row r="12" spans="1:6" ht="34.5">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11" t="s">
-        <v>67</v>
+      <c r="A13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="8" t="s">
-        <v>61</v>
+      <c r="A15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>59</v>
+      <c r="A18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11" t="s">
-        <v>58</v>
+      <c r="A19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="12" t="s">
-        <v>48</v>
+      <c r="A20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
+    <row r="21" spans="1:6" ht="84">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="4" t="s">
-        <v>50</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B7:B17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A2:A26"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1394,7 +1644,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1408,7 +1658,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1420,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1447,31 +1697,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1497,7 +1747,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1523,14 +1773,17 @@
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>37</v>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -1551,8 +1804,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="34.5">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:5" ht="37.5">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1562,7 +1815,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1570,4 +1823,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5ACDA5-BF4D-450B-9A96-BC29B90151B7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A661A1E8-52A4-4245-A787-6706A8D01EE2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="44.375" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29470428-8B32-4998-BD6B-A038FABA97DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9D127-BCC0-4819-8A8F-CF93301AA094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
@@ -239,11 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>robot需要增加新的位置
-有一个RFID需要读取，ethernet方式</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>与smif port适配 RV203
 RS-232C</t>
     <phoneticPr fontId="1"/>
@@ -424,14 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>需要开发对应接口dll
-有两个马达，都是通过232c控制
-一个控制盖子与底盘的lock unlock
-一个控制底盘的下降与上升，下降时opener就打开了
-另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>软件的改进点</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -696,6 +683,20 @@
   </si>
   <si>
     <t>增加一个权限设置，以及密码设置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">robot需要增加新的位置
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需要开发对应接口dll
+smifport的RFID通过OPENER读取，ethernet方式
+有两个马达，都是通过232c控制
+一个控制盖子与底盘的lock unlock
+一个控制底盘的下降与上升，下降时opener就打开了
+另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -896,6 +897,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,12 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,7 +1230,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1246,13 +1247,13 @@
     </row>
     <row r="2" spans="1:5" ht="37.5">
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1291,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1306,10 +1307,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>9</v>
@@ -1325,11 +1326,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1341,8 +1342,8 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="150">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1366,14 +1367,14 @@
         <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1391,235 +1392,235 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25" t="s">
-        <v>45</v>
+      <c r="A6" s="22"/>
+      <c r="B6" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="34.5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="37.5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="100.5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="84">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="34.5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="22" t="s">
-        <v>61</v>
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="27" t="s">
-        <v>90</v>
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="28" t="s">
-        <v>89</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="84">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
-        <v>46</v>
+      <c r="A22" s="22"/>
+      <c r="B22" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="15"/>
       <c r="D24" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="15"/>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="15"/>
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1643,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1692,15 +1693,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="100.5">
+    <row r="4" spans="1:5" ht="117">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1714,7 +1715,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1774,7 +1775,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1783,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -1815,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1829,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5ACDA5-BF4D-450B-9A96-BC29B90151B7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1841,31 +1842,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1890,33 +1891,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9D127-BCC0-4819-8A8F-CF93301AA094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDE156-C960-4D63-AE66-0C13F74CD684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="台湾AI样机" sheetId="7" r:id="rId1"/>
-    <sheet name="尼康2台BI8" sheetId="8" r:id="rId2"/>
-    <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId3"/>
-    <sheet name="AI50-广州新锐" sheetId="5" r:id="rId4"/>
-    <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId5"/>
-    <sheet name="hoya青岛" sheetId="9" r:id="rId6"/>
-    <sheet name="其它开发" sheetId="10" r:id="rId7"/>
+    <sheet name="NIKON-水户" sheetId="11" r:id="rId1"/>
+    <sheet name="台湾AI样机" sheetId="7" r:id="rId2"/>
+    <sheet name="尼康2台BI8" sheetId="8" r:id="rId3"/>
+    <sheet name="AI50-长沙韶光" sheetId="4" r:id="rId4"/>
+    <sheet name="AI50-广州新锐" sheetId="5" r:id="rId5"/>
+    <sheet name="AI50-100上海传芯" sheetId="6" r:id="rId6"/>
+    <sheet name="hoya青岛" sheetId="9" r:id="rId7"/>
+    <sheet name="其它开发" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>技术规格</t>
     <phoneticPr fontId="1"/>
@@ -252,16 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ROBOT由台湾制造
-使用232通信，协议由台湾提供</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 需要完成串口适配模块
-2 与当前的AI系统流程做到隔离与复用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用新的STAGE+AZD-KX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -460,43 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>由于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备不在日本，无法联调，必须开发模拟仿真环境</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-正在沟通是否可以拉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机械臂的样机到日本</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1 有问题，clamp会无故变0，断开</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -697,6 +651,38 @@
 一个控制盖子与底盘的lock unlock
 一个控制底盘的下降与上升，下降时opener就打开了
 另外还有2根线连接到DIO上，2个是interlock紧急停止时发出的信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用SYO机械臂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>组件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>硬件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sentech CMOS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -857,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -933,6 +919,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1212,11 +1199,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93443666-EFD7-42B2-A7CD-AB5AF6DBD094}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEEA8E-511C-41DF-A2E9-207E981057E4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1245,16 +1268,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1263,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC852CC-52BF-488A-A76B-5E2BD567E515}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1278,7 +1297,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1288,12 +1307,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC11748-8C3E-409D-BB90-5FF695B41B09}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1310,7 +1329,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>9</v>
@@ -1326,185 +1345,185 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>50</v>
+      <c r="A2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="150">
-      <c r="A4" s="22"/>
-      <c r="B4" s="5" t="s">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="150">
+      <c r="A7" s="22"/>
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36.75">
-      <c r="A6" s="22"/>
-      <c r="B6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="34.5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="37.5">
       <c r="A8" s="22"/>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36.75">
+      <c r="A9" s="22"/>
+      <c r="B9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="100.5">
+      <c r="C9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="34.5">
       <c r="A10" s="22"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>52</v>
+      <c r="B10" s="28"/>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="84">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.5">
       <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>61</v>
+      <c r="B11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="34.5">
+    <row r="12" spans="1:6">
       <c r="A12" s="22"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>62</v>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="100.5">
       <c r="A13" s="22"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="9" t="s">
-        <v>64</v>
+      <c r="C13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="84">
       <c r="A14" s="22"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="17" t="s">
-        <v>88</v>
+      <c r="C14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="34.5">
       <c r="A15" s="22"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="10" t="s">
-        <v>63</v>
+      <c r="C15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1513,8 +1532,8 @@
       <c r="A16" s="22"/>
       <c r="B16" s="19"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="8" t="s">
-        <v>58</v>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1523,8 +1542,8 @@
       <c r="A17" s="22"/>
       <c r="B17" s="19"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
+      <c r="D17" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1533,8 +1552,8 @@
       <c r="A18" s="22"/>
       <c r="B18" s="19"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="8" t="s">
-        <v>89</v>
+      <c r="D18" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1544,7 +1563,7 @@
       <c r="B19" s="19"/>
       <c r="C19" s="25"/>
       <c r="D19" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1553,86 +1572,116 @@
       <c r="A20" s="22"/>
       <c r="B20" s="19"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="18" t="s">
-        <v>87</v>
+      <c r="D20" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="84">
+    <row r="21" spans="1:6">
       <c r="A21" s="22"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
+      <c r="B22" s="19"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="22"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>56</v>
+      <c r="B23" s="19"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="84">
       <c r="A24" s="22"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11" t="s">
-        <v>46</v>
+      <c r="B24" s="19"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="4" t="s">
-        <v>47</v>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="20"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="4" t="s">
-        <v>48</v>
+      <c r="D26" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A5:A29"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,11 +1689,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFFA05-9850-4E71-BCB0-35D876DCFBFF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1715,7 +1764,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1743,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547ED5E-51B9-4118-873C-52AE99D617D0}">
   <dimension ref="B1:E5"/>
   <sheetViews>
@@ -1784,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -1816,7 +1865,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5ACDA5-BF4D-450B-9A96-BC29B90151B7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1842,31 +1891,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A661A1E8-52A4-4245-A787-6706A8D01EE2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1891,33 +1940,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
